--- a/tut05/output/0401CS02.xlsx
+++ b/tut05/output/0401CS02.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.040816326530612</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8.568181818181818</v>
+        <v>8.57</v>
       </c>
       <c r="D6" t="n">
-        <v>8.790697674418604</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>8.978723404255319</v>
+        <v>8.98</v>
       </c>
       <c r="F6" t="n">
-        <v>8.80952380952381</v>
+        <v>8.81</v>
       </c>
       <c r="G6" t="n">
-        <v>8.574999999999999</v>
+        <v>8.57</v>
       </c>
       <c r="H6" t="n">
-        <v>9.268292682926829</v>
+        <v>9.27</v>
       </c>
       <c r="I6" t="n">
         <v>8.949999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.040816326530612</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.817204301075268</v>
+        <v>8.82</v>
       </c>
       <c r="D8" t="n">
-        <v>8.808823529411764</v>
+        <v>8.81</v>
       </c>
       <c r="E8" t="n">
-        <v>8.852459016393443</v>
+        <v>8.85</v>
       </c>
       <c r="F8" t="n">
-        <v>8.844444444444445</v>
+        <v>8.84</v>
       </c>
       <c r="G8" t="n">
-        <v>8.80377358490566</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>8.866013071895425</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.875722543352602</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
   </sheetData>
